--- a/Files/Vaccine_May 20, 2002.xlsx
+++ b/Files/Vaccine_May 20, 2002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="121">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP</t>
+    <t xml:space="preserve">DTaP/</t>
   </si>
   <si>
     <t xml:space="preserve">Tripedia</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">$12.20</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP </t>
+    <t xml:space="preserve">DTaP-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">TriHIBit</t>
@@ -111,7 +111,7 @@
     <t xml:space="preserve">$15.42</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis Bi </t>
+    <t xml:space="preserve">Hepatitis B-Hibi </t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -148,13 +148,22 @@
     <t xml:space="preserve">Havrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vial 1 dose vial 5 x 1 dose TipLok 25 x 1 dose TipLok Safety 25 x 1 dose TipLok </t>
+    <t xml:space="preserve">10 x 1 dose vial </t>
   </si>
   <si>
     <t xml:space="preserve">$29.73</t>
   </si>
   <si>
+    <t xml:space="preserve">1 dose vial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 x 1 dose TipLok </t>
+  </si>
+  <si>
     <t xml:space="preserve">$11.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 x 1 dose TipLok Safety </t>
   </si>
   <si>
     <t xml:space="preserve">$11.80</t>
@@ -184,7 +193,7 @@
     <t xml:space="preserve">$59.45</t>
   </si>
   <si>
-    <t xml:space="preserve">HepatitisA-Hepatitis B 18 only</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only</t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -197,7 +206,7 @@
     <t xml:space="preserve">$36.16</t>
   </si>
   <si>
-    <t xml:space="preserve">HepatitisA-Hepatitis B Adult</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult</t>
   </si>
   <si>
     <t xml:space="preserve">10
@@ -205,7 +214,7 @@
 5 x 1 dose TIP-LOK</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B Preservative Free PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Preservative Free Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
@@ -223,16 +232,16 @@
     <t xml:space="preserve">$10.30</t>
   </si>
   <si>
-    <t xml:space="preserve">251 dose TipLok 23Gx1 dose TipLok</t>
+    <t xml:space="preserve">25 x 1 dose TipLok 23Gx1 dose TipLok</t>
   </si>
   <si>
     <t xml:space="preserve">$10.50</t>
   </si>
   <si>
-    <t xml:space="preserve">251 dose TipLok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 dose</t>
+    <t xml:space="preserve">25 x 1 dose TipLok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1x1 dose</t>
   </si>
   <si>
     <t xml:space="preserve">RECOMBIVAX HB</t>
@@ -331,7 +340,7 @@
     <t xml:space="preserve">$5.525</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR</t>
+    <t xml:space="preserve">MMR/</t>
   </si>
   <si>
     <t xml:space="preserve">MMRII</t>
@@ -347,7 +356,7 @@
     <t xml:space="preserve">$28.35</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal7-valent (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 7-valent (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>
@@ -773,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
@@ -802,10 +811,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>
@@ -831,10 +840,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
         <v>45</v>
@@ -860,10 +869,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
@@ -880,7 +889,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -889,13 +898,13 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1">
         <v>37437</v>
@@ -909,7 +918,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
@@ -918,13 +927,13 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1">
         <v>37437</v>
@@ -938,19 +947,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -967,19 +976,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -996,10 +1005,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1008,10 +1017,10 @@
         <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G18" s="1">
         <v>37711</v>
@@ -1025,22 +1034,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G19" s="1">
         <v>37711</v>
@@ -1054,22 +1063,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
         <v>67</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>64</v>
       </c>
       <c r="G20" s="1">
         <v>37711</v>
@@ -1083,22 +1092,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
         <v>69</v>
       </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G21" s="1">
         <v>37711</v>
@@ -1112,22 +1121,22 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G22" s="1">
         <v>37711</v>
@@ -1141,10 +1150,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1153,10 +1162,10 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G23" s="1">
         <v>37711</v>
@@ -1170,10 +1179,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
         <v>74</v>
-      </c>
-      <c r="B24" t="s">
-        <v>71</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1182,7 +1191,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -1199,22 +1208,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G25" s="1">
         <v>37437</v>
@@ -1228,22 +1237,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G26" s="1">
         <v>37437</v>
@@ -1257,10 +1266,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1269,10 +1278,10 @@
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G27" s="1">
         <v>37711</v>
@@ -1286,28 +1295,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G28" s="1">
         <v>37711</v>
       </c>
       <c r="H28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1315,28 +1324,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G29" s="1">
         <v>37711</v>
       </c>
       <c r="H29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -1344,19 +1353,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1365,7 +1374,7 @@
         <v>37652</v>
       </c>
       <c r="H30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -1373,22 +1382,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G31" s="1">
         <v>37711</v>
@@ -1402,28 +1411,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G32" s="1">
         <v>37711</v>
       </c>
       <c r="H32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -1431,10 +1440,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1443,10 +1452,10 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G33" s="1">
         <v>37711</v>
@@ -1460,10 +1469,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1472,10 +1481,10 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F34" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G34" s="1">
         <v>37711</v>

--- a/Files/Vaccine_May 20, 2002.xlsx
+++ b/Files/Vaccine_May 20, 2002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="119">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -101,8 +101,7 @@
     <t xml:space="preserve">IPOL</t>
   </si>
   <si>
-    <t xml:space="preserve">10 dose vial
-10 x 1 dose syringe</t>
+    <t xml:space="preserve">10 dose vial 10 x 1 dose syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$8.80</t>
@@ -135,10 +134,6 @@
     <t xml:space="preserve">VAQTA</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose
-vial</t>
-  </si>
-  <si>
     <t xml:space="preserve">$11.15</t>
   </si>
   <si>
@@ -172,8 +167,7 @@
     <t xml:space="preserve">Hepatitis A Adult</t>
   </si>
   <si>
-    <t xml:space="preserve">5 x 1 dose vials
-5 x 1 dose syringe</t>
+    <t xml:space="preserve">5 x 1 dose vials 5 x 1 dose syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$17.20</t>
@@ -182,9 +176,7 @@
     <t xml:space="preserve">$51.71</t>
   </si>
   <si>
-    <t xml:space="preserve">1 dose vial
-1 dose TIP-LOK
-5 x 1 dose TIP-LOK</t>
+    <t xml:space="preserve">1 dose vial 1 dose TIP-LOK 5 x 1 dose TIP-LOK</t>
   </si>
   <si>
     <t xml:space="preserve">$16.82</t>
@@ -199,8 +191,7 @@
     <t xml:space="preserve">Twinrix</t>
   </si>
   <si>
-    <t xml:space="preserve">Singe
-dose vial</t>
+    <t xml:space="preserve">Singe dose vial</t>
   </si>
   <si>
     <t xml:space="preserve">$36.16</t>
@@ -209,9 +200,7 @@
     <t xml:space="preserve">Hepatitis A-Hepatitis B Adult</t>
   </si>
   <si>
-    <t xml:space="preserve">10
-x 1dose vial
-5 x 1 dose TIP-LOK</t>
+    <t xml:space="preserve">10 x 1dose vial 5 x 1 dose TIP-LOK</t>
   </si>
   <si>
     <t xml:space="preserve">Hepatitis B Preservative Free Pediatric/Adolescent</t>
@@ -262,9 +251,7 @@
     <t xml:space="preserve">Hepatitis B-Adult</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vials
-10 x 3 dose vial
-5 x 1 dose syringe</t>
+    <t xml:space="preserve">10 x 1 dose vials 10 x 3 dose vial 5 x 1 dose syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$23.75</t>
@@ -276,9 +263,7 @@
     <t xml:space="preserve">ENGERIX-B</t>
   </si>
   <si>
-    <t xml:space="preserve">1 x 1 dose vial
-5 x 1 dose Tiplok
-25 x 1 dose Tiplok</t>
+    <t xml:space="preserve">1 x 1 dose vial 5 x 1 dose Tiplok 25 x 1 dose Tiplok</t>
   </si>
   <si>
     <t xml:space="preserve">$23.25</t>
@@ -323,18 +308,13 @@
     <t xml:space="preserve">$15.25</t>
   </si>
   <si>
-    <t xml:space="preserve">Aventis
-Pasteur</t>
-  </si>
-  <si>
     <t xml:space="preserve">Influenza</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
   </si>
   <si>
-    <t xml:space="preserve">10
-dose vials</t>
+    <t xml:space="preserve">10 dose vials</t>
   </si>
   <si>
     <t xml:space="preserve">$5.525</t>
@@ -346,8 +326,7 @@
     <t xml:space="preserve">MMRII</t>
   </si>
   <si>
-    <t xml:space="preserve">10
-dose vial</t>
+    <t xml:space="preserve">10 dose vial</t>
   </si>
   <si>
     <t xml:space="preserve">$15.64</t>
@@ -724,13 +703,13 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
       </c>
       <c r="G8" s="1">
         <v>37711</v>
@@ -747,19 +726,19 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
         <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
       </c>
       <c r="G9" s="1">
         <v>37711</v>
@@ -776,19 +755,19 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1">
         <v>37711</v>
@@ -805,19 +784,19 @@
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1">
         <v>37711</v>
@@ -834,19 +813,19 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
         <v>49</v>
       </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1">
         <v>37711</v>
@@ -863,7 +842,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -872,10 +851,10 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="1">
         <v>37711</v>
@@ -889,7 +868,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -898,13 +877,13 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
         <v>52</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
       </c>
       <c r="G14" s="1">
         <v>37437</v>
@@ -918,22 +897,22 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
         <v>55</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
       </c>
       <c r="G15" s="1">
         <v>37437</v>
@@ -947,19 +926,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>60</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -976,19 +955,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
         <v>62</v>
       </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>63</v>
-      </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1005,10 +984,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
         <v>64</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1017,10 +996,10 @@
         <v>34</v>
       </c>
       <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
         <v>66</v>
-      </c>
-      <c r="F18" t="s">
-        <v>67</v>
       </c>
       <c r="G18" s="1">
         <v>37711</v>
@@ -1034,22 +1013,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
         <v>68</v>
       </c>
-      <c r="E19" t="s">
-        <v>69</v>
-      </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="1">
         <v>37711</v>
@@ -1063,22 +1042,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
         <v>70</v>
       </c>
-      <c r="E20" t="s">
-        <v>71</v>
-      </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="1">
         <v>37711</v>
@@ -1092,22 +1071,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" s="1">
         <v>37711</v>
@@ -1121,22 +1100,22 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
         <v>65</v>
       </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>66</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
       </c>
       <c r="G22" s="1">
         <v>37711</v>
@@ -1150,10 +1129,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1162,10 +1141,10 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
         <v>75</v>
-      </c>
-      <c r="F23" t="s">
-        <v>76</v>
       </c>
       <c r="G23" s="1">
         <v>37711</v>
@@ -1179,10 +1158,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1191,7 +1170,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -1208,22 +1187,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>80</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>81</v>
-      </c>
-      <c r="F25" t="s">
-        <v>82</v>
       </c>
       <c r="G25" s="1">
         <v>37437</v>
@@ -1237,22 +1216,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
         <v>83</v>
       </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>84</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>85</v>
-      </c>
-      <c r="F26" t="s">
-        <v>86</v>
       </c>
       <c r="G26" s="1">
         <v>37437</v>
@@ -1266,10 +1245,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
         <v>87</v>
-      </c>
-      <c r="B27" t="s">
-        <v>88</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1278,10 +1257,10 @@
         <v>34</v>
       </c>
       <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s">
         <v>89</v>
-      </c>
-      <c r="F27" t="s">
-        <v>90</v>
       </c>
       <c r="G27" s="1">
         <v>37711</v>
@@ -1295,28 +1274,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
         <v>91</v>
       </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>92</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>93</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" s="1">
+        <v>37711</v>
+      </c>
+      <c r="H28" t="s">
         <v>94</v>
-      </c>
-      <c r="G28" s="1">
-        <v>37711</v>
-      </c>
-      <c r="H28" t="s">
-        <v>95</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1324,28 +1303,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
         <v>96</v>
       </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>97</v>
       </c>
-      <c r="F29" t="s">
-        <v>98</v>
-      </c>
       <c r="G29" s="1">
         <v>37711</v>
       </c>
       <c r="H29" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -1353,19 +1332,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
         <v>100</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E30" t="s">
         <v>101</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" t="s">
-        <v>103</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1374,7 +1353,7 @@
         <v>37652</v>
       </c>
       <c r="H30" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -1382,22 +1361,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
         <v>104</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31" t="s">
         <v>105</v>
       </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>106</v>
-      </c>
-      <c r="E31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" t="s">
-        <v>108</v>
       </c>
       <c r="G31" s="1">
         <v>37711</v>
@@ -1411,28 +1390,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
         <v>109</v>
       </c>
-      <c r="B32" t="s">
+      <c r="F32" t="s">
         <v>110</v>
       </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" t="s">
-        <v>112</v>
-      </c>
       <c r="G32" s="1">
         <v>37711</v>
       </c>
       <c r="H32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -1440,10 +1419,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1452,10 +1431,10 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G33" s="1">
         <v>37711</v>
@@ -1469,10 +1448,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1481,10 +1460,10 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G34" s="1">
         <v>37711</v>
